--- a/tut05/output/0401EE08.xlsx
+++ b/tut05/output/0401EE08.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.020408163265307</v>
+        <v>9.02</v>
       </c>
       <c r="C6" t="n">
-        <v>8.840909090909092</v>
+        <v>8.84</v>
       </c>
       <c r="D6" t="n">
-        <v>9.413043478260869</v>
+        <v>9.41</v>
       </c>
       <c r="E6" t="n">
-        <v>9.326086956521738</v>
+        <v>9.33</v>
       </c>
       <c r="F6" t="n">
-        <v>9.461538461538462</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.581395348837209</v>
+        <v>9.58</v>
       </c>
       <c r="I6" t="n">
-        <v>8.947368421052632</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.020408163265307</v>
+        <v>9.02</v>
       </c>
       <c r="C8" t="n">
-        <v>8.935483870967742</v>
+        <v>8.94</v>
       </c>
       <c r="D8" t="n">
-        <v>9.093525179856115</v>
+        <v>9.09</v>
       </c>
       <c r="E8" t="n">
-        <v>9.151351351351352</v>
+        <v>9.15</v>
       </c>
       <c r="F8" t="n">
-        <v>9.205357142857142</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>9.280303030303031</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>9.322475570032573</v>
+        <v>9.32</v>
       </c>
       <c r="I8" t="n">
-        <v>9.281159420289855</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
   </sheetData>
